--- a/biology/Médecine/Hôpital_des_forces_de_sécurité_intérieure_de_La_Marsa/Hôpital_des_forces_de_sécurité_intérieure_de_La_Marsa.xlsx
+++ b/biology/Médecine/Hôpital_des_forces_de_sécurité_intérieure_de_La_Marsa/Hôpital_des_forces_de_sécurité_intérieure_de_La_Marsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_des_forces_de_s%C3%A9curit%C3%A9_int%C3%A9rieure_de_La_Marsa</t>
+          <t>Hôpital_des_forces_de_sécurité_intérieure_de_La_Marsa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital des forces de sécurité intérieure de La Marsa, anciennement appelé Centre de soins des forces de sécurité intérieure de La Marsa, est un établissement de santé publique tunisien situé à La Marsa.
-Établi par la loi n° 87-83 du 31 décembre 1987, il est placé sous la tutelle du ministère de l’Intérieur[2].
-Assurant les différentes prestations médicales curatives et préventives, les examens complémentaires et les diagnostics pour les agents des forces de sécurité intérieure, il contribue également à l’enseignement universitaire et postuniversitaire médical, pharmaceutique et médical dentaire ainsi qu’à la recherche scientifique médicale et pharmaceutique par ses services hospitalo-universitaires[2].
+Établi par la loi n° 87-83 du 31 décembre 1987, il est placé sous la tutelle du ministère de l’Intérieur.
+Assurant les différentes prestations médicales curatives et préventives, les examens complémentaires et les diagnostics pour les agents des forces de sécurité intérieure, il contribue également à l’enseignement universitaire et postuniversitaire médical, pharmaceutique et médical dentaire ainsi qu’à la recherche scientifique médicale et pharmaceutique par ses services hospitalo-universitaires.
 </t>
         </is>
       </c>
